--- a/Code/Results/Cases/Case_2_168/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_168/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.56296722805883</v>
+        <v>9.486944736877136</v>
       </c>
       <c r="C2">
-        <v>7.624096480575263</v>
+        <v>5.692037375433699</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.49427683872027</v>
+        <v>16.46761802819981</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.08064771918043</v>
+        <v>3.625857913082736</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.07438657924039</v>
+        <v>8.689676238649927</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.61778231581996</v>
+        <v>17.83207224655341</v>
       </c>
       <c r="O2">
-        <v>13.74656080500187</v>
+        <v>20.88780721578135</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.66692431944649</v>
+        <v>9.176147000957604</v>
       </c>
       <c r="C3">
-        <v>7.256017628273558</v>
+        <v>5.533617818523892</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.36795824243301</v>
+        <v>15.53660390023953</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.085678300529003</v>
+        <v>3.627660703615569</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.36695507416214</v>
+        <v>8.47293520291586</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.83161524004923</v>
+        <v>17.89440262231351</v>
       </c>
       <c r="O3">
-        <v>13.76420236513236</v>
+        <v>20.96923847926976</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.08544792094108</v>
+        <v>8.981637274337329</v>
       </c>
       <c r="C4">
-        <v>7.020742006591813</v>
+        <v>5.433129413385758</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.99852285643285</v>
+        <v>14.94022716310238</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.08884886240046</v>
+        <v>3.628824678918332</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.9103908180823</v>
+        <v>8.338501143658688</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.9655047982045</v>
+        <v>17.93445351585281</v>
       </c>
       <c r="O4">
-        <v>13.79082698315418</v>
+        <v>21.02431268934053</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.84057714076707</v>
+        <v>8.901576866738212</v>
       </c>
       <c r="C5">
-        <v>6.922586338634856</v>
+        <v>5.391407216478807</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.42412200561314</v>
+        <v>14.69125042349741</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.090162227163265</v>
+        <v>3.629313403159999</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.71878660263213</v>
+        <v>8.283459738819911</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.02074947932639</v>
+        <v>17.95122357099906</v>
       </c>
       <c r="O5">
-        <v>13.80543657611499</v>
+        <v>21.04802752966808</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.7994373677612</v>
+        <v>8.888238780418796</v>
       </c>
       <c r="C6">
-        <v>6.906151834235342</v>
+        <v>5.384433765446996</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.32774795720891</v>
+        <v>14.64955770032874</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.090381620749097</v>
+        <v>3.629395426273974</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.68663688562041</v>
+        <v>8.274307017544775</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.02996497733317</v>
+        <v>17.95403538641524</v>
       </c>
       <c r="O6">
-        <v>13.80808346090275</v>
+        <v>21.05204203231929</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.08217760650644</v>
+        <v>8.980560597305573</v>
       </c>
       <c r="C7">
-        <v>7.019427392471668</v>
+        <v>5.432569809545079</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.99084283119734</v>
+        <v>14.93689306454285</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>2.088866487520333</v>
+        <v>3.628831211676858</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.90782919671708</v>
+        <v>8.337759771256398</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.96624703969466</v>
+        <v>17.93467786283122</v>
       </c>
       <c r="O7">
-        <v>13.79100906650365</v>
+        <v>21.02462737316353</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.26048072482426</v>
+        <v>9.380619351871719</v>
       </c>
       <c r="C8">
-        <v>7.499135369416689</v>
+        <v>5.638103435200865</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.77420116549687</v>
+        <v>16.15188364314047</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>2.08236577509635</v>
+        <v>3.626467702531456</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.83508511218476</v>
+        <v>8.615273058501405</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.69099250901853</v>
+        <v>17.85319523949643</v>
       </c>
       <c r="O8">
-        <v>13.74923777825929</v>
+        <v>20.91482868218441</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.32499142461694</v>
+        <v>10.13080589907931</v>
       </c>
       <c r="C9">
-        <v>8.364596734080065</v>
+        <v>6.014152415137067</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>33.73936796125705</v>
+        <v>18.40459232081288</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.070228928531193</v>
+        <v>3.622283374254512</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.47675809598447</v>
+        <v>9.145326943500081</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.17030461675634</v>
+        <v>17.70746293219693</v>
       </c>
       <c r="O9">
-        <v>13.80220977584173</v>
+        <v>20.73998225737555</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.69520588317303</v>
+        <v>10.65489516241233</v>
       </c>
       <c r="C10">
-        <v>8.953219227521746</v>
+        <v>6.272218268324738</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>37.10747493015799</v>
+        <v>20.03798457283578</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.061627359892002</v>
+        <v>3.619480704599982</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.57550784465188</v>
+        <v>9.521887977481956</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.79711619043846</v>
+        <v>17.60886659828725</v>
       </c>
       <c r="O10">
-        <v>13.93656259817225</v>
+        <v>20.63646353469302</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.28757684057323</v>
+        <v>10.88634380457577</v>
       </c>
       <c r="C11">
-        <v>9.210676742638887</v>
+        <v>6.38534824735527</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>38.58405471308931</v>
+        <v>20.73892322596665</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.057768738030263</v>
+        <v>3.618264005718688</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.05235716223858</v>
+        <v>9.689599124429529</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.62882172869998</v>
+        <v>17.56583216427281</v>
       </c>
       <c r="O11">
-        <v>14.02124313427487</v>
+        <v>20.59484241489709</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.50751860050798</v>
+        <v>10.9729080312953</v>
       </c>
       <c r="C12">
-        <v>9.30669359080353</v>
+        <v>6.42755138834333</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>39.13567436652316</v>
+        <v>20.99833245944162</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.056314096753785</v>
+        <v>3.61781159979962</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.22966244298474</v>
+        <v>9.752530915452578</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.56525418984274</v>
+        <v>17.54979599442214</v>
       </c>
       <c r="O12">
-        <v>14.05692974004039</v>
+        <v>20.57987271553377</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.46034360127649</v>
+        <v>10.9543140907918</v>
       </c>
       <c r="C13">
-        <v>9.286080129406869</v>
+        <v>6.418490851263345</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>39.01720013519544</v>
+        <v>20.94273130535957</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.056627110704166</v>
+        <v>3.617908663669867</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.19162119353706</v>
+        <v>9.739003995138537</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.57893823426046</v>
+        <v>17.55323812627335</v>
       </c>
       <c r="O13">
-        <v>14.04907931935564</v>
+        <v>20.58306143998414</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.30575884366737</v>
+        <v>10.8934875691264</v>
       </c>
       <c r="C14">
-        <v>9.218605635485302</v>
+        <v>6.388833211173075</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>38.6295848514844</v>
+        <v>20.76038546259011</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.057648940566816</v>
+        <v>3.618226619289415</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.06700940695071</v>
+        <v>9.694788450587005</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.62358904430614</v>
+        <v>17.5645076549495</v>
       </c>
       <c r="O14">
-        <v>14.02410522196143</v>
+        <v>20.593594962874</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.21050359252695</v>
+        <v>10.85608667808933</v>
       </c>
       <c r="C15">
-        <v>9.177083579782551</v>
+        <v>6.370583478466188</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>38.39119341173146</v>
+        <v>20.64791022520905</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.058275652100571</v>
+        <v>3.618422459978841</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.99025686964939</v>
+        <v>9.667628320889365</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.65095849197667</v>
+        <v>17.57144439200766</v>
       </c>
       <c r="O15">
-        <v>14.00928613987903</v>
+        <v>20.60015024095437</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.65587649565413</v>
+        <v>10.63962237480754</v>
       </c>
       <c r="C16">
-        <v>8.936186595086754</v>
+        <v>6.26473707265304</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>37.00989700065212</v>
+        <v>19.99133224459941</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.061880516333864</v>
+        <v>3.619561387038201</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.54388518220745</v>
+        <v>9.510850142265079</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.80814009028084</v>
+        <v>17.61171545983826</v>
       </c>
       <c r="O16">
-        <v>13.93152249808277</v>
+        <v>20.63929405079681</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.30775520649841</v>
+        <v>10.50498609809082</v>
       </c>
       <c r="C17">
-        <v>8.785764644473112</v>
+        <v>6.198693829943362</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>36.14859446326346</v>
+        <v>19.57778363809619</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.064105019830855</v>
+        <v>3.620274969140302</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.26418861228498</v>
+        <v>9.413707900273948</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.90490874590166</v>
+        <v>17.63688502464709</v>
       </c>
       <c r="O17">
-        <v>13.89001720874383</v>
+        <v>20.66471191998896</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.10460744530535</v>
+        <v>10.42689569378371</v>
       </c>
       <c r="C18">
-        <v>8.698274555927469</v>
+        <v>6.160307250461537</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>35.64793326386987</v>
+        <v>19.33595684735339</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.065389686946381</v>
+        <v>3.620690888071648</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.10114894275043</v>
+        <v>9.357499811571058</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.96070918088805</v>
+        <v>17.65153304567448</v>
       </c>
       <c r="O18">
-        <v>13.86834852192876</v>
+        <v>20.67984619781825</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.03532185291911</v>
+        <v>10.40034634661504</v>
       </c>
       <c r="C19">
-        <v>8.668485060384681</v>
+        <v>6.147242222823314</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>35.47750071444501</v>
+        <v>19.25339652727322</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.065825581506184</v>
+        <v>3.620832654560925</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.04557360742999</v>
+        <v>9.33841321250744</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.9796280183126</v>
+        <v>17.65652205012461</v>
       </c>
       <c r="O19">
-        <v>13.86138334740245</v>
+        <v>20.68505864029381</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.34511475755303</v>
+        <v>10.51938635656952</v>
       </c>
       <c r="C20">
-        <v>8.801877837864565</v>
+        <v>6.205765847620163</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>36.24082305139514</v>
+        <v>19.62221667262738</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.063867689134967</v>
+        <v>3.620198439715091</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.2941866853062</v>
+        <v>9.424083927305656</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.89459324047157</v>
+        <v>17.63418797739995</v>
       </c>
       <c r="O20">
-        <v>13.89420572408912</v>
+        <v>20.66195285149945</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.35128228584736</v>
+        <v>10.91138369999933</v>
       </c>
       <c r="C21">
-        <v>9.238464514774787</v>
+        <v>6.397561833529611</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>38.74363724618238</v>
+        <v>20.81410800481927</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.057348637752522</v>
+        <v>3.618133002256005</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.10369923636298</v>
+        <v>9.707791740970906</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.61047004260505</v>
+        <v>17.56119047437193</v>
       </c>
       <c r="O21">
-        <v>14.03134063646633</v>
+        <v>20.59047949862632</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.98340149212041</v>
+        <v>11.16124899018282</v>
       </c>
       <c r="C22">
-        <v>9.515201019879736</v>
+        <v>6.519191133076338</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>40.33573834577091</v>
+        <v>21.55799785061672</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.05312546886792</v>
+        <v>3.616831661544797</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.61374292220992</v>
+        <v>9.889824608193329</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.42569647149477</v>
+        <v>17.51499747134682</v>
       </c>
       <c r="O22">
-        <v>14.14217247987773</v>
+        <v>20.54838204156139</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.6483320074518</v>
+        <v>11.02849403083878</v>
       </c>
       <c r="C23">
-        <v>9.368283907860658</v>
+        <v>6.454622798326046</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>39.48982970745103</v>
+        <v>21.16416886920414</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.055376484043919</v>
+        <v>3.617521784662087</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.34324850446496</v>
+        <v>9.792998901345367</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.52424727920747</v>
+        <v>17.53951335014584</v>
       </c>
       <c r="O23">
-        <v>14.08100286773554</v>
+        <v>20.57042648392294</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.32823387988157</v>
+        <v>10.51287813098489</v>
       </c>
       <c r="C24">
-        <v>8.794596210953943</v>
+        <v>6.202569886924591</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>36.19914363162952</v>
+        <v>19.60214118473799</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.063974968274436</v>
+        <v>3.620233020998713</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.28063153123722</v>
+        <v>9.419394041229115</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.8992563571003</v>
+        <v>17.63540675878595</v>
       </c>
       <c r="O24">
-        <v>13.89230528236059</v>
+        <v>20.66319860311318</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.79249822945114</v>
+        <v>9.932210334012236</v>
       </c>
       <c r="C25">
-        <v>8.138704448042416</v>
+        <v>5.915504341227162</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>32.44689856822451</v>
+        <v>17.765529280945</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.073452466533546</v>
+        <v>3.623367436024327</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.0515707890673</v>
+        <v>9.003904660987823</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.30934542951979</v>
+        <v>17.74539257816797</v>
       </c>
       <c r="O25">
-        <v>13.77207950153846</v>
+        <v>20.78292222778792</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_168/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_168/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.486944736877136</v>
+        <v>13.5629672280588</v>
       </c>
       <c r="C2">
-        <v>5.692037375433699</v>
+        <v>7.624096480575358</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.46761802819981</v>
+        <v>29.49427683872029</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.625857913082736</v>
+        <v>2.080647719180697</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.689676238649927</v>
+        <v>12.07438657924037</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>17.83207224655341</v>
+        <v>11.61778231582</v>
       </c>
       <c r="O2">
-        <v>20.88780721578135</v>
+        <v>13.7465608050019</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.176147000957604</v>
+        <v>12.66692431944648</v>
       </c>
       <c r="C3">
-        <v>5.533617818523892</v>
+        <v>7.256017628273671</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.53660390023953</v>
+        <v>27.36795824243302</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.627660703615569</v>
+        <v>2.085678300529137</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.47293520291586</v>
+        <v>11.36695507416218</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>17.89440262231351</v>
+        <v>11.83161524004917</v>
       </c>
       <c r="O3">
-        <v>20.96923847926976</v>
+        <v>13.76420236513225</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.981637274337329</v>
+        <v>12.08544792094109</v>
       </c>
       <c r="C4">
-        <v>5.433129413385758</v>
+        <v>7.020742006591892</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.94022716310238</v>
+        <v>25.99852285643278</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.628824678918332</v>
+        <v>2.088848862400327</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.338501143658688</v>
+        <v>10.9103908180823</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>17.93445351585281</v>
+        <v>11.9655047982046</v>
       </c>
       <c r="O4">
-        <v>21.02431268934053</v>
+        <v>13.79082698315429</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.901576866738212</v>
+        <v>11.84057714076709</v>
       </c>
       <c r="C5">
-        <v>5.391407216478807</v>
+        <v>6.922586338634868</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.69125042349741</v>
+        <v>25.42412200561316</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.629313403159999</v>
+        <v>2.090162227163266</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.283459738819911</v>
+        <v>10.71878660263216</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.95122357099906</v>
+        <v>12.02074947932639</v>
       </c>
       <c r="O5">
-        <v>21.04802752966808</v>
+        <v>13.80543657611495</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.888238780418796</v>
+        <v>11.79943736776127</v>
       </c>
       <c r="C6">
-        <v>5.384433765446996</v>
+        <v>6.906151834235537</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.64955770032874</v>
+        <v>25.32774795720895</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.629395426273974</v>
+        <v>2.090381620749231</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.274307017544775</v>
+        <v>10.68663688562046</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.95403538641524</v>
+        <v>12.02996497733307</v>
       </c>
       <c r="O6">
-        <v>21.05204203231929</v>
+        <v>13.80808346090253</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.980560597305573</v>
+        <v>12.08217760650651</v>
       </c>
       <c r="C7">
-        <v>5.432569809545079</v>
+        <v>7.019427392471488</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.93689306454285</v>
+        <v>25.99084283119736</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.628831211676858</v>
+        <v>2.0888664875202</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.337759771256398</v>
+        <v>10.90782919671713</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>17.93467786283122</v>
+        <v>11.96624703969453</v>
       </c>
       <c r="O7">
-        <v>21.02462737316353</v>
+        <v>13.79100906650343</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.380619351871719</v>
+        <v>13.26048072482429</v>
       </c>
       <c r="C8">
-        <v>5.638103435200865</v>
+        <v>7.499135369416675</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.15188364314047</v>
+        <v>28.77420116549688</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.626467702531456</v>
+        <v>2.082365775096082</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.615273058501405</v>
+        <v>11.83508511218477</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17.85319523949643</v>
+        <v>11.6909925090185</v>
       </c>
       <c r="O8">
-        <v>20.91482868218441</v>
+        <v>13.7492377782592</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.13080589907931</v>
+        <v>15.32499142461706</v>
       </c>
       <c r="C9">
-        <v>6.014152415137067</v>
+        <v>8.364596734079973</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.40459232081288</v>
+        <v>33.7393679612571</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.622283374254512</v>
+        <v>2.07022892853106</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.145326943500081</v>
+        <v>13.47675809598454</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.70746293219693</v>
+        <v>11.17030461675627</v>
       </c>
       <c r="O9">
-        <v>20.73998225737555</v>
+        <v>13.80220977584161</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.65489516241233</v>
+        <v>16.69520588317307</v>
       </c>
       <c r="C10">
-        <v>6.272218268324738</v>
+        <v>8.953219227521666</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.03798457283578</v>
+        <v>37.10747493015798</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.619480704599982</v>
+        <v>2.061627359892137</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.521887977481956</v>
+        <v>14.5755078446519</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.60886659828725</v>
+        <v>10.79711619043846</v>
       </c>
       <c r="O10">
-        <v>20.63646353469302</v>
+        <v>13.9365625981722</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.88634380457577</v>
+        <v>17.28757684057338</v>
       </c>
       <c r="C11">
-        <v>6.38534824735527</v>
+        <v>9.210676742638622</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.73892322596665</v>
+        <v>38.58405471308936</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.618264005718688</v>
+        <v>2.057768738030264</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.689599124429529</v>
+        <v>15.05235716223864</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.56583216427281</v>
+        <v>10.62882172869987</v>
       </c>
       <c r="O11">
-        <v>20.59484241489709</v>
+        <v>14.0212431342748</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.9729080312953</v>
+        <v>17.50751860050803</v>
       </c>
       <c r="C12">
-        <v>6.42755138834333</v>
+        <v>9.306693590803546</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>20.99833245944162</v>
+        <v>39.13567436652324</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.61781159979962</v>
+        <v>2.056314096753918</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.752530915452578</v>
+        <v>15.22966244298479</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.54979599442214</v>
+        <v>10.56525418984274</v>
       </c>
       <c r="O12">
-        <v>20.57987271553377</v>
+        <v>14.05692974004033</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.9543140907918</v>
+        <v>17.46034360127644</v>
       </c>
       <c r="C13">
-        <v>6.418490851263345</v>
+        <v>9.286080129406816</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>20.94273130535957</v>
+        <v>39.0172001351954</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.617908663669867</v>
+        <v>2.056627110704299</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.739003995138537</v>
+        <v>15.19162119353704</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.55323812627335</v>
+        <v>10.5789382342605</v>
       </c>
       <c r="O13">
-        <v>20.58306143998414</v>
+        <v>14.04907931935568</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.8934875691264</v>
+        <v>17.30575884366737</v>
       </c>
       <c r="C14">
-        <v>6.388833211173075</v>
+        <v>9.218605635485302</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>20.76038546259011</v>
+        <v>38.62958485148434</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.618226619289415</v>
+        <v>2.057648940566816</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.694788450587005</v>
+        <v>15.06700940695071</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.5645076549495</v>
+        <v>10.62358904430614</v>
       </c>
       <c r="O14">
-        <v>20.593594962874</v>
+        <v>14.02410522196143</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.85608667808933</v>
+        <v>17.21050359252698</v>
       </c>
       <c r="C15">
-        <v>6.370583478466188</v>
+        <v>9.177083579782314</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.64791022520905</v>
+        <v>38.39119341173146</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.618422459978841</v>
+        <v>2.058275652100438</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.667628320889365</v>
+        <v>14.99025686964936</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.57144439200766</v>
+        <v>10.65095849197661</v>
       </c>
       <c r="O15">
-        <v>20.60015024095437</v>
+        <v>14.00928613987895</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.63962237480754</v>
+        <v>16.65587649565417</v>
       </c>
       <c r="C16">
-        <v>6.26473707265304</v>
+        <v>8.936186595086848</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.99133224459941</v>
+        <v>37.00989700065212</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.619561387038201</v>
+        <v>2.061880516333863</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.510850142265079</v>
+        <v>14.54388518220754</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.61171545983826</v>
+        <v>10.8081400902808</v>
       </c>
       <c r="O16">
-        <v>20.63929405079681</v>
+        <v>13.93152249808272</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.50498609809082</v>
+        <v>16.30775520649842</v>
       </c>
       <c r="C17">
-        <v>6.198693829943362</v>
+        <v>8.785764644473099</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.57778363809619</v>
+        <v>36.14859446326364</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.620274969140302</v>
+        <v>2.064105019830454</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.413707900273948</v>
+        <v>14.26418861228497</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.63688502464709</v>
+        <v>10.90490874590155</v>
       </c>
       <c r="O17">
-        <v>20.66471191998896</v>
+        <v>13.89001720874376</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.42689569378371</v>
+        <v>16.10460744530541</v>
       </c>
       <c r="C18">
-        <v>6.160307250461537</v>
+        <v>8.698274555927362</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.33595684735339</v>
+        <v>35.64793326386996</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.620690888071648</v>
+        <v>2.065389686946248</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.357499811571058</v>
+        <v>14.10114894275047</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.65153304567448</v>
+        <v>10.96070918088801</v>
       </c>
       <c r="O18">
-        <v>20.67984619781825</v>
+        <v>13.86834852192872</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.40034634661504</v>
+        <v>16.03532185291922</v>
       </c>
       <c r="C19">
-        <v>6.147242222823314</v>
+        <v>8.668485060384601</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.25339652727322</v>
+        <v>35.47750071444507</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.620832654560925</v>
+        <v>2.065825581506453</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.33841321250744</v>
+        <v>14.04557360743007</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.65652205012461</v>
+        <v>10.97962801831253</v>
       </c>
       <c r="O19">
-        <v>20.68505864029381</v>
+        <v>13.86138334740239</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.51938635656952</v>
+        <v>16.34511475755303</v>
       </c>
       <c r="C20">
-        <v>6.205765847620163</v>
+        <v>8.801877837864552</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.62221667262738</v>
+        <v>36.24082305139512</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.620198439715091</v>
+        <v>2.063867689134967</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.424083927305656</v>
+        <v>14.29418668530616</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.63418797739995</v>
+        <v>10.8945932404716</v>
       </c>
       <c r="O20">
-        <v>20.66195285149945</v>
+        <v>13.89420572408921</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.91138369999933</v>
+        <v>17.35128228584728</v>
       </c>
       <c r="C21">
-        <v>6.397561833529611</v>
+        <v>9.238464514774879</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>20.81410800481927</v>
+        <v>38.74363724618237</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.618133002256005</v>
+        <v>2.057348637752255</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.707791740970906</v>
+        <v>15.10369923636293</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.56119047437193</v>
+        <v>10.61047004260494</v>
       </c>
       <c r="O21">
-        <v>20.59047949862632</v>
+        <v>14.03134063646637</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.16124899018282</v>
+        <v>17.98340149212046</v>
       </c>
       <c r="C22">
-        <v>6.519191133076338</v>
+        <v>9.515201019879736</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.55799785061672</v>
+        <v>40.33573834577096</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.616831661544797</v>
+        <v>2.053125468867919</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.889824608193329</v>
+        <v>15.61374292220995</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.51499747134682</v>
+        <v>10.4256964714948</v>
       </c>
       <c r="O22">
-        <v>20.54838204156139</v>
+        <v>14.14217247987775</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.02849403083878</v>
+        <v>17.64833200745181</v>
       </c>
       <c r="C23">
-        <v>6.454622798326046</v>
+        <v>9.368283907860711</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.16416886920414</v>
+        <v>39.48982970745099</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.617521784662087</v>
+        <v>2.05537648404392</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.792998901345367</v>
+        <v>15.34324850446498</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.53951335014584</v>
+        <v>10.52424727920747</v>
       </c>
       <c r="O23">
-        <v>20.57042648392294</v>
+        <v>14.08100286773553</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.51287813098489</v>
+        <v>16.3282338798816</v>
       </c>
       <c r="C24">
-        <v>6.202569886924591</v>
+        <v>8.794596210954129</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.60214118473799</v>
+        <v>36.1991436316296</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.620233020998713</v>
+        <v>2.063974968274706</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.419394041229115</v>
+        <v>14.28063153123726</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.63540675878595</v>
+        <v>10.8992563571002</v>
       </c>
       <c r="O24">
-        <v>20.66319860311318</v>
+        <v>13.89230528236047</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.932210334012236</v>
+        <v>14.79249822945114</v>
       </c>
       <c r="C25">
-        <v>5.915504341227162</v>
+        <v>8.138704448042319</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.765529280945</v>
+        <v>32.44689856822448</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.623367436024327</v>
+        <v>2.07345246653368</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.003904660987823</v>
+        <v>13.0515707890673</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.74539257816797</v>
+        <v>11.30934542951972</v>
       </c>
       <c r="O25">
-        <v>20.78292222778792</v>
+        <v>13.77207950153839</v>
       </c>
     </row>
   </sheetData>
